--- a/results/[14_delayed_co2_pricing]_#_inv_cost.xlsx
+++ b/results/[14_delayed_co2_pricing]_#_inv_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5438.409379980163</v>
+        <v>10372.65132737054</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13868.5083630681</v>
+        <v>289260.5393052954</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7286.33314139565</v>
+        <v>80959.25712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>31113.977708736</v>
+        <v>161710.6685703679</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>484922.2142001599</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>105953.7713982</v>
       </c>
       <c r="N2" t="n">
-        <v>4897.602148891324</v>
+        <v>70003.73489578845</v>
       </c>
       <c r="O2" t="n">
-        <v>7262.375938507258</v>
+        <v>69744.89343456978</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4076.683804611164</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9077.854925484444</v>
+        <v>31203.23858116339</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>38668.68259872351</v>
+        <v>170658.5511254234</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>57990.58492007876</v>
+        <v>209080.6134235085</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>63518.11613148725</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>68536.72857011756</v>
       </c>
       <c r="N2" t="n">
-        <v>8321.538881516826</v>
+        <v>19285.19160463996</v>
       </c>
       <c r="O2" t="n">
-        <v>7021.211903140116</v>
+        <v>27033.1386905727</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5310.359013814369</v>
+        <v>27543.1755456332</v>
       </c>
       <c r="B2" t="n">
-        <v>14058.13149740678</v>
+        <v>22113.21643273498</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>58157.14951550964</v>
+        <v>114655.4402706629</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85997.51828916262</v>
+        <v>153866.0861464091</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>44638.22942194272</v>
       </c>
       <c r="N2" t="n">
-        <v>15130.30412399452</v>
+        <v>39676.88529639924</v>
       </c>
       <c r="O2" t="n">
-        <v>11504.71832746226</v>
+        <v>31311.04369977792</v>
       </c>
     </row>
   </sheetData>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1142.580190039942</v>
       </c>
       <c r="O2" t="n">
-        <v>741.276702963037</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2327.934439300461</v>
+        <v>29588.33508286276</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4347.543515635315</v>
       </c>
       <c r="O2" t="n">
-        <v>612.1420905210745</v>
+        <v>20429.76977394434</v>
       </c>
     </row>
   </sheetData>

--- a/results/[14_delayed_co2_pricing]_#_inv_cost.xlsx
+++ b/results/[14_delayed_co2_pricing]_#_inv_cost.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>31261.86294181648</v>
+        <v>44772.20219999998</v>
       </c>
       <c r="B2" t="n">
-        <v>53175.12072399999</v>
+        <v>66455.8835753044</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>78239.4887432206</v>
+        <v>161898.8373611681</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>68945.67065037666</v>
+        <v>42315.16049511277</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>261292.6808172</v>
+        <v>368713.9349763304</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -553,13 +553,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>42641.96670096</v>
+        <v>117236.9623729033</v>
       </c>
       <c r="N2" t="n">
-        <v>47320.36366645404</v>
+        <v>44307.00162899461</v>
       </c>
       <c r="O2" t="n">
-        <v>53503.59952819125</v>
+        <v>69321.42489628839</v>
       </c>
     </row>
   </sheetData>
@@ -660,7 +660,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>86489.19552963306</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>158720.6561784386</v>
+        <v>168991.0867127558</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11653.17888195442</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>498618.5058034019</v>
+        <v>186179.998087696</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>183367.2078300883</v>
+        <v>58342.04889041941</v>
       </c>
       <c r="N2" t="n">
-        <v>107434.5175896278</v>
+        <v>39676.26863217632</v>
       </c>
       <c r="O2" t="n">
-        <v>69913.90484866771</v>
+        <v>34021.21142223401</v>
       </c>
     </row>
   </sheetData>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>709303.5248866556</v>
+        <v>191161.3699534388</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>36325.45083361523</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>331907.3140293694</v>
+        <v>163867.1262511917</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1227970.570547061</v>
+        <v>94581.52972418125</v>
       </c>
       <c r="M2" t="n">
-        <v>388321.4279481605</v>
+        <v>65483.40464893889</v>
       </c>
       <c r="N2" t="n">
-        <v>125545.5679290598</v>
+        <v>32161.74273064164</v>
       </c>
       <c r="O2" t="n">
-        <v>146005.5885580523</v>
+        <v>26542.39345168303</v>
       </c>
     </row>
   </sheetData>

--- a/results/[14_delayed_co2_pricing]_#_inv_cost.xlsx
+++ b/results/[14_delayed_co2_pricing]_#_inv_cost.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>44772.20219999998</v>
+        <v>48306.03421671776</v>
       </c>
       <c r="B2" t="n">
-        <v>66455.8835753044</v>
+        <v>69142.60623028062</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>161898.8373611681</v>
+        <v>153393.0996716316</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>368713.9349763304</v>
+        <v>368437.3937326</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -553,13 +553,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>117236.9623729033</v>
+        <v>117162.36729175</v>
       </c>
       <c r="N2" t="n">
-        <v>44307.00162899461</v>
+        <v>42606.7698102724</v>
       </c>
       <c r="O2" t="n">
-        <v>69321.42489628839</v>
+        <v>69179.85095077046</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>11272.08507472299</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>168991.0867127558</v>
+        <v>259832.3234357048</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>186179.998087696</v>
+        <v>303336.6638662838</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>58342.04889041941</v>
+        <v>108726.69049759</v>
       </c>
       <c r="N2" t="n">
-        <v>39676.26863217632</v>
+        <v>61774.6704292406</v>
       </c>
       <c r="O2" t="n">
-        <v>34021.21142223401</v>
+        <v>51779.80353542881</v>
       </c>
     </row>
   </sheetData>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>191161.3699534388</v>
+        <v>203665.4934311435</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36325.45083361523</v>
+        <v>36325.45083359783</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>163867.1262511917</v>
+        <v>181475.9119087656</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>94581.52972418125</v>
+        <v>48934.58355751802</v>
       </c>
       <c r="M2" t="n">
-        <v>65483.40464893889</v>
+        <v>59245.21767383911</v>
       </c>
       <c r="N2" t="n">
-        <v>32161.74273064164</v>
+        <v>29435.62058728274</v>
       </c>
       <c r="O2" t="n">
-        <v>26542.39345168303</v>
+        <v>32090.85709793116</v>
       </c>
     </row>
   </sheetData>

--- a/results/[14_delayed_co2_pricing]_#_inv_cost.xlsx
+++ b/results/[14_delayed_co2_pricing]_#_inv_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10372.65132737054</v>
+        <v>9739.537847600008</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>289260.5393052954</v>
+        <v>289823.7596598056</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>161710.6685703679</v>
+        <v>161752.8135478</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>484922.2142001599</v>
+        <v>485245.29503538</v>
       </c>
       <c r="M2" t="n">
-        <v>105953.7713982</v>
+        <v>105905.87968015</v>
       </c>
       <c r="N2" t="n">
-        <v>70003.73489578845</v>
+        <v>70831.955579581</v>
       </c>
       <c r="O2" t="n">
-        <v>69744.89343456978</v>
+        <v>69610.4422391004</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>31203.23858116339</v>
+        <v>47386.06393082884</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>170658.5511254234</v>
+        <v>271236.7992183856</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>209080.6134235085</v>
+        <v>280426.171173861</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>63518.11613148725</v>
+        <v>184420.4799505123</v>
       </c>
       <c r="M2" t="n">
-        <v>68536.72857011756</v>
+        <v>113936.92264746</v>
       </c>
       <c r="N2" t="n">
-        <v>19285.19160463996</v>
+        <v>33931.8246116005</v>
       </c>
       <c r="O2" t="n">
-        <v>27033.1386905727</v>
+        <v>50485.47232467777</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27543.1755456332</v>
+        <v>28619.61401238371</v>
       </c>
       <c r="B2" t="n">
-        <v>22113.21643273498</v>
+        <v>23143.29485244409</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>114655.4402706629</v>
+        <v>111916.8406725409</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>153866.0861464091</v>
+        <v>150385.2728707001</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>44638.22942194272</v>
+        <v>34803.41203795493</v>
       </c>
       <c r="N2" t="n">
-        <v>39676.88529639924</v>
+        <v>44938.11408779013</v>
       </c>
       <c r="O2" t="n">
-        <v>31311.04369977792</v>
+        <v>26938.31306104351</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1142.580190039942</v>
+        <v>1014.766490779938</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>29588.33508286276</v>
+        <v>34409.11717595647</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4347.543515635315</v>
+        <v>5182.698656944208</v>
       </c>
       <c r="O2" t="n">
-        <v>20429.76977394434</v>
+        <v>22972.54525065906</v>
       </c>
     </row>
   </sheetData>

--- a/results/[14_delayed_co2_pricing]_#_inv_cost.xlsx
+++ b/results/[14_delayed_co2_pricing]_#_inv_cost.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>31261.86294181648</v>
+        <v>39031.81680257922</v>
       </c>
       <c r="B2" t="n">
-        <v>53175.12072399999</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>480246.882031777</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>78239.4887432206</v>
+        <v>2897240.114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>95787.21511094004</v>
       </c>
       <c r="G2" t="n">
-        <v>68945.67065037666</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25342.77928792126</v>
       </c>
       <c r="I2" t="n">
-        <v>261292.6808172</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -553,13 +553,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>42641.96670096</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>47320.36366645404</v>
+        <v>24790.01698851407</v>
       </c>
       <c r="O2" t="n">
-        <v>53503.59952819125</v>
+        <v>19940.13531829329</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>86489.19552963306</v>
+        <v>38474.22754243398</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1449739.865999208</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>158720.6561784386</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>68781.6055373494</v>
       </c>
       <c r="G2" t="n">
-        <v>11653.17888195442</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>48766.68152149498</v>
       </c>
       <c r="I2" t="n">
-        <v>498618.5058034019</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>183367.2078300883</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>107434.5175896278</v>
+        <v>61595.36923039754</v>
       </c>
       <c r="O2" t="n">
-        <v>69913.90484866771</v>
+        <v>37387.51309567104</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>192739.0887555323</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>993010.8231553335</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>709303.5248866556</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8362.158153921411</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>41828.18095704987</v>
       </c>
       <c r="I2" t="n">
-        <v>331907.3140293694</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1227970.570547061</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>388321.4279481605</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>125545.5679290598</v>
+        <v>52911.02090087628</v>
       </c>
       <c r="O2" t="n">
-        <v>146005.5885580523</v>
+        <v>39123.60766563785</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">

--- a/results/[14_delayed_co2_pricing]_#_inv_cost.xlsx
+++ b/results/[14_delayed_co2_pricing]_#_inv_cost.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>48306.03421671776</v>
+        <v>53903.87531524985</v>
       </c>
       <c r="B2" t="n">
-        <v>69142.60623028062</v>
+        <v>66631.07410080002</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>153393.0996716316</v>
+        <v>148163.1105402212</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>368437.3937326</v>
+        <v>368467.1726986</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -553,13 +553,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>117162.36729175</v>
+        <v>117062.03357365</v>
       </c>
       <c r="N2" t="n">
-        <v>42606.7698102724</v>
+        <v>39101.99505769319</v>
       </c>
       <c r="O2" t="n">
-        <v>69179.85095077046</v>
+        <v>69179.85095077044</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11272.08507472299</v>
+        <v>16301.894259462</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>259832.3234357048</v>
+        <v>252498.6354236602</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>303336.6638662838</v>
+        <v>303793.0247600056</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>108726.69049759</v>
+        <v>107173.95226791</v>
       </c>
       <c r="N2" t="n">
-        <v>61774.6704292406</v>
+        <v>62192.74864151615</v>
       </c>
       <c r="O2" t="n">
-        <v>51779.80353542881</v>
+        <v>51778.82846662694</v>
       </c>
     </row>
   </sheetData>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>203665.4934311435</v>
+        <v>203308.5883443898</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36325.45083359783</v>
+        <v>36325.45083361523</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>181475.9119087656</v>
+        <v>202590.0894332904</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>48934.58355751802</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>59245.21767383911</v>
+        <v>61279.5349989899</v>
       </c>
       <c r="N2" t="n">
-        <v>29435.62058728274</v>
+        <v>27802.84438718831</v>
       </c>
       <c r="O2" t="n">
-        <v>32090.85709793116</v>
+        <v>32751.34799329561</v>
       </c>
     </row>
   </sheetData>

--- a/results/[14_delayed_co2_pricing]_#_inv_cost.xlsx
+++ b/results/[14_delayed_co2_pricing]_#_inv_cost.xlsx
@@ -556,10 +556,10 @@
         <v>105905.87968015</v>
       </c>
       <c r="N2" t="n">
-        <v>70831.955579581</v>
+        <v>70831.95557958097</v>
       </c>
       <c r="O2" t="n">
-        <v>69610.4422391004</v>
+        <v>69610.44223910036</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>47386.06393082884</v>
+        <v>47338.61932520662</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>280426.171173861</v>
+        <v>283167.7766510943</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>184420.4799505123</v>
+        <v>178095.3756971828</v>
       </c>
       <c r="M2" t="n">
-        <v>113936.92264746</v>
+        <v>114008.3253427963</v>
       </c>
       <c r="N2" t="n">
-        <v>33931.8246116005</v>
+        <v>33931.82461160053</v>
       </c>
       <c r="O2" t="n">
-        <v>50485.47232467777</v>
+        <v>50657.26889981552</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>28619.61401238371</v>
+        <v>29273.60317916481</v>
       </c>
       <c r="B2" t="n">
-        <v>23143.29485244409</v>
+        <v>22330.72247668595</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>111916.8406725409</v>
+        <v>110739.3594843864</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>150385.2728707001</v>
+        <v>150386.9441391908</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>34803.41203795493</v>
+        <v>35556.98862372932</v>
       </c>
       <c r="N2" t="n">
-        <v>44938.11408779013</v>
+        <v>44813.41193308897</v>
       </c>
       <c r="O2" t="n">
-        <v>26938.31306104351</v>
+        <v>26775.55841092002</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1014.766490779938</v>
+        <v>1041.156112142704</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>34409.11717595647</v>
+        <v>34256.25291363284</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5182.698656944208</v>
+        <v>5271.89502409355</v>
       </c>
       <c r="O2" t="n">
-        <v>22972.54525065906</v>
+        <v>22972.54525065989</v>
       </c>
     </row>
   </sheetData>
